--- a/BROMappings/Mapping BRO GMW Events.xlsx
+++ b/BROMappings/Mapping BRO GMW Events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/Datamodels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{7FA45A96-A3C0-4165-8D39-AC29C64859BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20B8E9B-D637-4536-BA5B-A2E54CF0B9F4}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{7FA45A96-A3C0-4165-8D39-AC29C64859BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD50771-71AE-4FF7-A0A7-48978A28285D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>Put ingericht</t>
   </si>
@@ -325,6 +325,21 @@
   </si>
   <si>
     <t>Verwijdert individuele brondocumenten (aanvullingen, correcties, beëindiging). Het te verwijderen brondocument moet meegestuurd worden.</t>
+  </si>
+  <si>
+    <t>XYZPositie ingemeten</t>
+  </si>
+  <si>
+    <t>Aanvullen en corrigeren</t>
+  </si>
+  <si>
+    <t>Corrigeren (of geen)</t>
+  </si>
+  <si>
+    <t>Een nieuwe XY-inmeting hoeft niet noodzakelijkerwijs tot een correctie (verbeterde waarde) te leiden</t>
+  </si>
+  <si>
+    <t>Z en XY tegelijk ingemeten, combinatie van BRO-gebeurtenissen</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,272 +1368,286 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="38" t="s">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E20" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F20" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G20" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F21" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F23" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G23" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1637,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G24" s="24"/>
     </row>
@@ -1658,70 +1687,70 @@
         <v>10</v>
       </c>
       <c r="F25" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="38" t="s">
+      <c r="B27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E28" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F28" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>80</v>
       </c>
       <c r="G28" s="24"/>
     </row>
@@ -1730,55 +1759,65 @@
         <v>47</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E30" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E31" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F31" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G31" s="25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1787,7 +1826,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="29"/>
       <c r="F32" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -1798,7 +1837,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="29"/>
       <c r="F33" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="24"/>
     </row>
@@ -1809,7 +1848,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="29"/>
       <c r="F34" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="24"/>
     </row>
@@ -1820,20 +1859,31 @@
       <c r="D35" s="12"/>
       <c r="E35" s="29"/>
       <c r="F35" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G37" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BROMappings/Mapping BRO GMW Events.xlsx
+++ b/BROMappings/Mapping BRO GMW Events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{7FA45A96-A3C0-4165-8D39-AC29C64859BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD50771-71AE-4FF7-A0A7-48978A28285D}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{7FA45A96-A3C0-4165-8D39-AC29C64859BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C050A7B-3030-44A9-87E4-A1F13C46F05D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
   <si>
     <t>Put ingericht</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Logger vervangen</t>
   </si>
   <si>
-    <t>Logger lager gehangen</t>
-  </si>
-  <si>
-    <t>Logger hoger gehangen</t>
-  </si>
-  <si>
     <t>Buis schoongemaakt</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>Buis vervangen</t>
   </si>
   <si>
-    <t>Put  verplaatst</t>
-  </si>
-  <si>
     <t>BRO_DO</t>
   </si>
   <si>
@@ -340,6 +331,129 @@
   </si>
   <si>
     <t>Z en XY tegelijk ingemeten, combinatie van BRO-gebeurtenissen</t>
+  </si>
+  <si>
+    <t>BronOmschrijving</t>
+  </si>
+  <si>
+    <t>De beschermconstructie van de put is nieuw aangebracht of vervangen</t>
+  </si>
+  <si>
+    <t>De buizen zijn ingekort of korter geworden door reparatie</t>
+  </si>
+  <si>
+    <t>De buizen zijn opgelengd of langer geworden door reparatie</t>
+  </si>
+  <si>
+    <t>Een smallere buis is ingeplaatst ter reparatie</t>
+  </si>
+  <si>
+    <t>De fysieke status van buizen is veranderd</t>
+  </si>
+  <si>
+    <t>De eigenaar van de put is veranderd</t>
+  </si>
+  <si>
+    <t>De fysieke status van één of meer elektrodes is veranderd</t>
+  </si>
+  <si>
+    <t>Het maaiveld bij de put is gedaald door een natuurlijk proces</t>
+  </si>
+  <si>
+    <t>Het maaiveld bij de put is gestegen door een natuurlijk proces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De put is nieuw geplaatst en ingericht   </t>
+  </si>
+  <si>
+    <t>Het maaiveld bij de put is verlaagd door afgraving</t>
+  </si>
+  <si>
+    <t>Het maaiveld bij de put is verhoogd door ophoging</t>
+  </si>
+  <si>
+    <t>De maaiveldhoogte bij de put is ingemeten</t>
+  </si>
+  <si>
+    <t>De buis- en maaiveldhoogte zijn gedaald door een natuurlijk proces</t>
+  </si>
+  <si>
+    <t>De buis- en maaiveldhoogte zijn gestegen door een natuurlijk proces</t>
+  </si>
+  <si>
+    <t>De buis- en maaiveldhoogte zijn ingemeten</t>
+  </si>
+  <si>
+    <t>De XY-coordinaten zijn ingemeten</t>
+  </si>
+  <si>
+    <t>De XYZ-coordinaten  zijn ingemeten</t>
+  </si>
+  <si>
+    <t>De onderhouder van de put is veranderd</t>
+  </si>
+  <si>
+    <t>De dataleverancier is veranderd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De put is opgeruimd      </t>
+  </si>
+  <si>
+    <t>De put is uit registratie  genomen</t>
+  </si>
+  <si>
+    <t>Er is een buis bijgeplaatst</t>
+  </si>
+  <si>
+    <t>Er is een buis vervangen</t>
+  </si>
+  <si>
+    <t>De put is vervangen</t>
+  </si>
+  <si>
+    <t>In de buis is een logger geplaatst</t>
+  </si>
+  <si>
+    <t>De logger is verwijderd uit de buis</t>
+  </si>
+  <si>
+    <t>De logger in de buis is vervangen</t>
+  </si>
+  <si>
+    <t>De buis is schoongemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger verlaagd </t>
+  </si>
+  <si>
+    <t>Logger verhoogd</t>
+  </si>
+  <si>
+    <t>De logger in de buis is verhoogd teruggehangen</t>
+  </si>
+  <si>
+    <t>De logger in de buis is verlaagd teruggehangen</t>
+  </si>
+  <si>
+    <t>GewijzigdeEntiteit</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Put, Net</t>
+  </si>
+  <si>
+    <t>Put, Buis, Net</t>
+  </si>
+  <si>
+    <t>Diverse</t>
+  </si>
+  <si>
+    <t>Buis</t>
+  </si>
+  <si>
+    <t>Put, Buis</t>
   </si>
 </sst>
 </file>
@@ -589,21 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -686,30 +785,91 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -722,64 +882,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -800,59 +912,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,34 +1265,42 @@
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="132.28515625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1190,15 +1313,21 @@
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1211,15 +1340,21 @@
       <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1232,15 +1367,21 @@
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1253,15 +1394,21 @@
       <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1274,15 +1421,21 @@
       <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1293,17 +1446,23 @@
         <v>42</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1316,38 +1475,50 @@
       <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="H8" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="E9" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1358,42 +1529,54 @@
         <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="41" t="s">
+      <c r="H10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="C11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>10</v>
@@ -1404,17 +1587,23 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1427,15 +1616,21 @@
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1448,15 +1643,21 @@
       <c r="D14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1469,15 +1670,21 @@
       <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1490,15 +1697,21 @@
       <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1511,15 +1724,21 @@
       <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1532,15 +1751,21 @@
       <c r="D18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1553,38 +1778,50 @@
       <c r="D19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1597,15 +1834,21 @@
       <c r="D21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1618,38 +1861,50 @@
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1662,15 +1917,21 @@
       <c r="D24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1683,207 +1944,258 @@
       <c r="D25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="H26" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="H29" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E30" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="26"/>
+      <c r="F32" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="26"/>
+      <c r="F33" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="26"/>
+      <c r="F34" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="31" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="27"/>
+      <c r="H36" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
